--- a/src/ExcelsiorSyncfusion.Tests/FormatGuessingTests.Test.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/FormatGuessingTests.Test.verified.xlsx
@@ -149,9 +149,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.27734375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -165,7 +165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -176,7 +176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="28.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -187,7 +187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
